--- a/back-end/Dress/products.xlsx
+++ b/back-end/Dress/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>rating</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t xml:space="preserve">contactno </t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>https://image.wedmegood.com/resized/450X/uploads/member/1314238/1592985945_Screenshot_from_2020_06_24_13_30_57.png</t>
   </si>
   <si>
+    <t>priya.patel@example.com</t>
+  </si>
+  <si>
     <t>Enter a realm of whimsical wonder at Dreamy Dress Emporium, where each gown embodies the essence of dreams and romance. Our emporium offers an enchanting array of bridal dresses crafted with delicate lace, flowing chiffon, and shimmering satin. From fairytale ball gowns to sleek mermaid silhouettes, every design is meticulously curated to make your wedding day dreams come true. Our knowledgeable stylists are dedicated to providing personalized attention, ensuring that every bride feels like royalty as she finds her perfect dress. Let us transport you to a world of enchantment and make your wedding day truly magical.</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>https://image.wedmegood.com/resized/450X/uploads/member/1134141/1584710745_Screenshot_from_2020_03_20_18_54_59.png</t>
   </si>
   <si>
+    <t>rajesh.kumar@gmail.com</t>
+  </si>
+  <si>
     <t>Nestled in a serene corner of the city, our boutique offers a sanctuary of tranquility where brides can explore a curated collection of timeless bridal gowns. Each dress exudes splendor and elegance, with intricate details and luxurious fabrics that reflect the essence of true love. Our experienced consultants are committed to providing a personalized shopping experience, guiding brides through the selection process with care and expertise. Whether you envision a classic ballroom affair or a romantic garden ceremony, Serene Splendor Bridal Boutique is the perfect destination to find the gown of your dreams.</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>https://productimages.withfloats.com/tile/5e258edd864d8b00011cebd1.jpg</t>
   </si>
   <si>
+    <t>aarav.gupta@hotmail.com</t>
+  </si>
+  <si>
     <t>At Blissful Bridal Bliss, we believe that every bride deserves to experience pure joy on her wedding day. Our boutique is a haven of happiness, where brides-to-be can explore a carefully curated collection of exquisite bridal attire. From flowing bohemian designs to glamorous Hollywood-inspired gowns, our selection caters to every style and preference. Our dedicated team of stylists is passionate about helping brides find the perfect dress that reflects their individuality and celebrates their love story. With attention to detail and a commitment to excellence, we strive to make every bride's journey to the altar as blissful as can be. Let us be a part of your wedding day adventure and create memories that will last a lifetime.</t>
   </si>
   <si>
@@ -79,6 +91,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSiZH6_ItNgmzBtJFRq2nz19DC0aBP22MpHzyB1Gh7zdA&amp;s</t>
   </si>
   <si>
+    <t>ananya.sharma@yahoo.com</t>
+  </si>
+  <si>
     <t>tep into a world of whimsy and wonder at Whimsical Wedding Wardrobe, where imagination knows no bounds. Our boutique offers a curated collection of whimsical wedding attire that embraces the beauty of individuality and creativity. From bohemian-inspired designs to vintage-inspired silhouettes, each gown is a unique expression of style and personality. Our dedicated team of stylists is committed to providing a personalized shopping experience, helping brides find the perfect dress that reflects their vision and spirit. Whether you're planning a rustic barn wedding or a whimsical garden soiree, Whimsical Wedding Wardrobe has the enchanting attire you need to make your special day truly magical.</t>
   </si>
   <si>
@@ -91,6 +106,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTw_JMyTVul13HQwxfWHQdTGMlMsDA9ArAXoRvUyQKYg&amp;s</t>
   </si>
   <si>
+    <t>vikram.singh@outlook.com</t>
+  </si>
+  <si>
     <t>Indulge in the timeless allure of romance and elegance at Regal Romance Bridal Boutique. Our boutique offers a curated selection of regal gowns that exude sophistication and grace. From classic A-line dresses to opulent ball gowns, each design is crafted with luxurious fabrics and exquisite embellishments that capture the essence of regal splendor. Our experienced consultants provide personalized service, guiding brides through the selection process with care and expertise. Whether you dream of a fairy tale castle wedding or a glamorous black-tie affair, Regal Romance Bridal Boutique has the perfect gown to make you feel like royalty on your special day.</t>
   </si>
   <si>
@@ -103,6 +121,9 @@
     <t>https://shaadiwish.com/blog/wp-content/uploads/2019/05/9-682x1024.jpeg</t>
   </si>
   <si>
+    <t>nisha.desai@aol.com</t>
+  </si>
+  <si>
     <t>Whimsical Wedding Wardrobe</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>https://content.jdmagicbox.com/comp/pune/l1/020pxx20.xx20.210929195024.w3l1/catalogue/nauwari-saaz-hadapsar-pune-lehenga-on-hire-dbthtvc64q.jpg</t>
   </si>
   <si>
+    <t>arjun.reddy@icloud.com</t>
+  </si>
+  <si>
     <t>Regal Romance Bridal Boutique</t>
   </si>
   <si>
@@ -121,6 +145,9 @@
     <t>https://i.pinimg.com/originals/10/7b/bd/107bbd787d41c3f17f1e5ae4423af1f2.jpg</t>
   </si>
   <si>
+    <t>divya.joshi@live.com</t>
+  </si>
+  <si>
     <t>Everlasting Elegance Emporium</t>
   </si>
   <si>
@@ -130,6 +157,9 @@
     <t>https://i.pinimg.com/736x/f6/c1/fd/f6c1fd0458c0c19a76389e82e37393f0.jpg</t>
   </si>
   <si>
+    <t>rohan.mehta@protonmail.com</t>
+  </si>
+  <si>
     <t>Ethereal Elegance Bridal Boutique</t>
   </si>
   <si>
@@ -139,6 +169,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShwW_FeB5eivaqDgeLwf8LpMAGpRrxh5OTfEgeqkqwushdjuVVoBqlEigXA_ym8PtfywA&amp;usqp=CAU</t>
   </si>
   <si>
+    <t>sunita.verma@inbox.com</t>
+  </si>
+  <si>
     <t>Enchanted Elegance Bridal Boutique</t>
   </si>
   <si>
@@ -148,6 +181,9 @@
     <t>https://pinkysrentalstylestudio.com/wp-content/uploads/elementor/thumbs/316896306_594958009053623_800447815430770419_n-qc95q0dxg7jip8akvfpnydknyrc46tep45uwjgemtw.jpg</t>
   </si>
   <si>
+    <t>aditi.shah@example.com</t>
+  </si>
+  <si>
     <t>Glittering Gowns Gallery</t>
   </si>
   <si>
@@ -157,6 +193,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTAMbXSrreuavutpggxaoEL1vLJLv52oSU5ZqoQxavyBJuMZxKf5NVN0IOgw3OJ-3XTp0M&amp;usqp=CAU</t>
   </si>
   <si>
+    <t>rahul.mishra@gmail.com</t>
+  </si>
+  <si>
     <t>Pure Perfection Bridal Boutique</t>
   </si>
   <si>
@@ -166,6 +205,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTI6yOJ1rFfCBLaJ6X415v2A4uV5PUdPvnsD-ZdLXcE1g&amp;s</t>
   </si>
   <si>
+    <t>kiran.patel@hotmail.com</t>
+  </si>
+  <si>
     <t>Timeless Trends Bridal Salon</t>
   </si>
   <si>
@@ -175,6 +217,9 @@
     <t>https://femina.wwmindia.com/content/2019/sep/sonam-kapoor-ahujas-sangeet-dress.jpg</t>
   </si>
   <si>
+    <t>amit.verma@yahoo.com</t>
+  </si>
+  <si>
     <t>Elegant Ensembles Emporium</t>
   </si>
   <si>
@@ -184,6 +229,9 @@
     <t>https://i.pinimg.com/736x/a6/d6/03/a6d6036d8b1af7857d16579de5e753a9.jpg</t>
   </si>
   <si>
+    <t>priyanka.das@outlook.com</t>
+  </si>
+  <si>
     <t>Sparkling Splendor Bridal Boutique</t>
   </si>
   <si>
@@ -193,6 +241,9 @@
     <t>https://i.pinimg.com/736x/27/0d/e3/270de30e45e8f6dc1272aef0e41ef984.jpg</t>
   </si>
   <si>
+    <t>sanjay.agarwal@aol.com</t>
+  </si>
+  <si>
     <t>Radiant Reverie Bridal Boutique</t>
   </si>
   <si>
@@ -202,6 +253,9 @@
     <t>https://www.wedabout.com/blog/wp-content/uploads/2023/05/modern-best-red-indian-wedding-reception-lehenga-dress-for-bride-1.jpg</t>
   </si>
   <si>
+    <t>seema.thakur@icloud.com</t>
+  </si>
+  <si>
     <t>Heavenly Hues Bridal Salon</t>
   </si>
   <si>
@@ -211,6 +265,9 @@
     <t>https://cdn.shopify.com/s/files/1/1150/2764/files/How-to-compliment-your-wedding-dress-with-accessories-Matha-patti-and-maang-Necklace_1024x1024.jpg?v=1668507171</t>
   </si>
   <si>
+    <t>vivek.sharma@live.com</t>
+  </si>
+  <si>
     <t>Enigmatic Elegance Bridal Boutique</t>
   </si>
   <si>
@@ -220,6 +277,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSfly87cti1dveeug_8222TkD3ei6k6P1f4XD1N66-VJg&amp;s</t>
   </si>
   <si>
+    <t>anjali.banerjee@protonmail.com</t>
+  </si>
+  <si>
     <t>Opulent Ovations Bridal Boutique</t>
   </si>
   <si>
@@ -227,13 +287,16 @@
   </si>
   <si>
     <t>https://i.pinimg.com/736x/43/e1/bb/43e1bbf8d13904e296ecee26116ad602.jpg</t>
+  </si>
+  <si>
+    <t>arnav.saxena@inbox.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -271,10 +334,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Söhne"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -297,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -328,11 +401,17 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
@@ -566,8 +645,8 @@
     <col customWidth="1" min="2" max="2" width="24.63"/>
     <col customWidth="1" min="3" max="3" width="19.38"/>
     <col customWidth="1" min="4" max="4" width="164.0"/>
-    <col customWidth="1" min="6" max="6" width="25.38"/>
-    <col customWidth="1" min="7" max="7" width="179.75"/>
+    <col customWidth="1" min="6" max="7" width="25.38"/>
+    <col customWidth="1" min="8" max="8" width="179.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -592,1437 +671,1500 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="72.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>5000.0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
         <v>4.5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
         <v>9.30255828E9</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>10000.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>5.5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>54000.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7">
         <v>5.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>3000.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>5.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>20000.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7">
         <v>5.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>3000.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7">
         <v>3.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5">
         <v>9.856235841E9</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3">
         <v>20000.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7">
         <v>2.2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>10000.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7">
         <v>3.3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>4000.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>5.5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3">
         <v>7000.0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7">
         <v>4.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>10</v>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>8000.0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E12" s="7">
         <v>5.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>22</v>
+      <c r="H12" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3">
         <v>5000.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7">
         <v>3.3</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="12">
         <v>7.863524841E9</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
+      <c r="H13" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3">
         <v>4000.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7">
         <v>5.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
+      <c r="H14" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
         <v>4000.0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7">
         <v>3.2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
+      <c r="H15" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>50000.0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E16" s="7">
         <v>5.5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
+      <c r="H16" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3">
         <v>60000.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E17" s="7">
         <v>5.5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>18</v>
+      <c r="H17" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12">
+        <v>78</v>
+      </c>
+      <c r="C18" s="14">
         <v>90000.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E18" s="7">
         <v>5.5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
+      <c r="H18" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3">
         <v>50000.0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E19" s="7">
         <v>5.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
+      <c r="H19" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3">
         <v>82000.0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E20" s="7">
         <v>5.5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
+      <c r="H20" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3">
         <v>75000.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E21" s="7">
         <v>5.5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
+      <c r="H21" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="13"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55">
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56">
-      <c r="C56" s="13"/>
-      <c r="D56" s="12"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57">
-      <c r="C57" s="13"/>
-      <c r="D57" s="12"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58">
-      <c r="C58" s="13"/>
-      <c r="D58" s="12"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59">
-      <c r="C59" s="13"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60">
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61">
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62">
-      <c r="C62" s="13"/>
-      <c r="D62" s="12"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63">
-      <c r="D63" s="12"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64">
-      <c r="D64" s="12"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65">
-      <c r="D65" s="12"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66">
-      <c r="D66" s="12"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67">
-      <c r="D67" s="12"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68">
-      <c r="D68" s="12"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69">
-      <c r="D69" s="12"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70">
-      <c r="D70" s="12"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71">
-      <c r="D71" s="12"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72">
-      <c r="D72" s="12"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73">
-      <c r="D73" s="12"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74">
-      <c r="D74" s="12"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75">
-      <c r="D75" s="12"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76">
-      <c r="D76" s="15"/>
+      <c r="D76" s="17"/>
     </row>
     <row r="77">
-      <c r="D77" s="12"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78">
-      <c r="D78" s="12"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79">
-      <c r="D79" s="12"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80">
-      <c r="D80" s="12"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81">
-      <c r="D81" s="12"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82">
-      <c r="D82" s="12"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83">
-      <c r="D83" s="12"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84">
-      <c r="D84" s="12"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85">
-      <c r="D85" s="12"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86">
-      <c r="D86" s="12"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87">
-      <c r="D87" s="12"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88">
-      <c r="D88" s="12"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89">
-      <c r="D89" s="12"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90">
-      <c r="D90" s="12"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91">
-      <c r="D91" s="12"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92">
-      <c r="D92" s="12"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93">
-      <c r="D93" s="12"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94">
-      <c r="D94" s="12"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95">
-      <c r="D95" s="12"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96">
-      <c r="D96" s="12"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97">
-      <c r="D97" s="12"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98">
-      <c r="D98" s="12"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99">
-      <c r="D99" s="12"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100">
-      <c r="D100" s="12"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101">
-      <c r="D101" s="15"/>
+      <c r="D101" s="17"/>
     </row>
     <row r="102">
-      <c r="D102" s="12"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103">
-      <c r="D103" s="12"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104">
-      <c r="D104" s="12"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105">
-      <c r="D105" s="12"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106">
-      <c r="D106" s="15"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107">
-      <c r="D107" s="15"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108">
-      <c r="D108" s="15"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109">
-      <c r="D109" s="15"/>
+      <c r="D109" s="17"/>
     </row>
     <row r="110">
-      <c r="D110" s="15"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111">
-      <c r="D111" s="15"/>
+      <c r="D111" s="17"/>
     </row>
     <row r="112">
-      <c r="D112" s="15"/>
+      <c r="D112" s="17"/>
     </row>
     <row r="113">
-      <c r="D113" s="15"/>
+      <c r="D113" s="17"/>
     </row>
     <row r="114">
-      <c r="D114" s="15"/>
+      <c r="D114" s="17"/>
     </row>
     <row r="115">
-      <c r="D115" s="15"/>
+      <c r="D115" s="17"/>
     </row>
     <row r="116">
-      <c r="D116" s="15"/>
+      <c r="D116" s="17"/>
     </row>
     <row r="117">
-      <c r="D117" s="15"/>
+      <c r="D117" s="17"/>
     </row>
     <row r="118">
-      <c r="D118" s="15"/>
+      <c r="D118" s="17"/>
     </row>
     <row r="119">
-      <c r="D119" s="15"/>
+      <c r="D119" s="17"/>
     </row>
     <row r="120">
-      <c r="D120" s="13"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121">
-      <c r="D121" s="15"/>
+      <c r="D121" s="17"/>
     </row>
     <row r="122">
-      <c r="D122" s="15"/>
+      <c r="D122" s="17"/>
     </row>
     <row r="123">
-      <c r="D123" s="15"/>
+      <c r="D123" s="17"/>
     </row>
     <row r="124">
-      <c r="D124" s="15"/>
+      <c r="D124" s="17"/>
     </row>
     <row r="125">
-      <c r="D125" s="15"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126">
-      <c r="D126" s="15"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="127">
-      <c r="D127" s="15"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128">
-      <c r="D128" s="15"/>
+      <c r="D128" s="17"/>
     </row>
     <row r="129">
-      <c r="D129" s="15"/>
+      <c r="D129" s="17"/>
     </row>
     <row r="130">
-      <c r="D130" s="15"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131">
-      <c r="D131" s="15"/>
+      <c r="D131" s="17"/>
     </row>
     <row r="132">
-      <c r="D132" s="15"/>
+      <c r="D132" s="17"/>
     </row>
     <row r="133">
-      <c r="D133" s="15"/>
+      <c r="D133" s="17"/>
     </row>
     <row r="134">
-      <c r="D134" s="15"/>
+      <c r="D134" s="17"/>
     </row>
     <row r="135">
-      <c r="D135" s="15"/>
+      <c r="D135" s="17"/>
     </row>
     <row r="136">
-      <c r="D136" s="15"/>
+      <c r="D136" s="17"/>
     </row>
     <row r="137">
-      <c r="D137" s="15"/>
+      <c r="D137" s="17"/>
     </row>
     <row r="138">
-      <c r="D138" s="15"/>
+      <c r="D138" s="17"/>
     </row>
     <row r="139">
-      <c r="D139" s="15"/>
+      <c r="D139" s="17"/>
     </row>
     <row r="140">
-      <c r="D140" s="15"/>
+      <c r="D140" s="17"/>
     </row>
     <row r="141">
-      <c r="D141" s="15"/>
+      <c r="D141" s="17"/>
     </row>
     <row r="142">
-      <c r="D142" s="15"/>
+      <c r="D142" s="17"/>
     </row>
     <row r="143">
-      <c r="D143" s="15"/>
+      <c r="D143" s="17"/>
     </row>
     <row r="144">
-      <c r="D144" s="15"/>
+      <c r="D144" s="17"/>
     </row>
     <row r="145">
-      <c r="D145" s="13"/>
+      <c r="D145" s="15"/>
     </row>
     <row r="146">
-      <c r="D146" s="15"/>
+      <c r="D146" s="17"/>
     </row>
     <row r="147">
-      <c r="D147" s="15"/>
+      <c r="D147" s="17"/>
     </row>
     <row r="148">
-      <c r="D148" s="15"/>
+      <c r="D148" s="17"/>
     </row>
     <row r="149">
-      <c r="D149" s="15"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150">
-      <c r="D150" s="15"/>
+      <c r="D150" s="17"/>
     </row>
     <row r="151">
-      <c r="D151" s="15"/>
+      <c r="D151" s="17"/>
     </row>
     <row r="152">
-      <c r="D152" s="15"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153">
-      <c r="D153" s="12"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154">
-      <c r="D154" s="12"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155">
-      <c r="D155" s="12"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156">
-      <c r="D156" s="12"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157">
-      <c r="D157" s="12"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158">
-      <c r="D158" s="12"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159">
-      <c r="D159" s="12"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160">
-      <c r="D160" s="12"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161">
-      <c r="D161" s="12"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162">
-      <c r="D162" s="12"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163">
-      <c r="D163" s="12"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164">
-      <c r="D164" s="12"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165">
-      <c r="D165" s="12"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166">
-      <c r="D166" s="12"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167">
-      <c r="D167" s="12"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168">
-      <c r="D168" s="12"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169">
-      <c r="D169" s="12"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170">
-      <c r="D170" s="13"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171">
-      <c r="D171" s="12"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172">
-      <c r="D172" s="12"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173">
-      <c r="D173" s="12"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174">
-      <c r="D174" s="12"/>
+      <c r="D174" s="14"/>
     </row>
     <row r="175">
-      <c r="D175" s="12"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176">
-      <c r="D176" s="12"/>
+      <c r="D176" s="14"/>
     </row>
     <row r="177">
-      <c r="D177" s="12"/>
+      <c r="D177" s="14"/>
     </row>
     <row r="178">
-      <c r="D178" s="12"/>
+      <c r="D178" s="14"/>
     </row>
     <row r="179">
-      <c r="D179" s="12"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180">
-      <c r="D180" s="12"/>
+      <c r="D180" s="14"/>
     </row>
     <row r="181">
-      <c r="D181" s="12"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182">
-      <c r="D182" s="12"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183">
-      <c r="D183" s="12"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184">
-      <c r="D184" s="12"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185">
-      <c r="D185" s="12"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186">
-      <c r="D186" s="12"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187">
-      <c r="D187" s="12"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188">
-      <c r="D188" s="12"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189">
-      <c r="D189" s="12"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190">
-      <c r="D190" s="12"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191">
-      <c r="D191" s="12"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192">
-      <c r="D192" s="12"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193">
-      <c r="D193" s="12"/>
+      <c r="D193" s="14"/>
     </row>
     <row r="194">
-      <c r="D194" s="12"/>
+      <c r="D194" s="14"/>
     </row>
     <row r="195">
-      <c r="D195" s="13"/>
+      <c r="D195" s="15"/>
     </row>
     <row r="196">
-      <c r="D196" s="12"/>
+      <c r="D196" s="14"/>
     </row>
     <row r="197">
-      <c r="D197" s="12"/>
+      <c r="D197" s="14"/>
     </row>
     <row r="198">
-      <c r="D198" s="12"/>
+      <c r="D198" s="14"/>
     </row>
     <row r="199">
-      <c r="D199" s="12"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200">
-      <c r="D200" s="12"/>
+      <c r="D200" s="14"/>
     </row>
     <row r="201">
-      <c r="D201" s="12"/>
+      <c r="D201" s="14"/>
     </row>
     <row r="202">
-      <c r="D202" s="12"/>
+      <c r="D202" s="14"/>
     </row>
     <row r="203">
-      <c r="D203" s="12"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204">
-      <c r="D204" s="12"/>
+      <c r="D204" s="14"/>
     </row>
     <row r="205">
-      <c r="D205" s="12"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206">
-      <c r="D206" s="12"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207">
-      <c r="D207" s="12"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208">
-      <c r="D208" s="12"/>
+      <c r="D208" s="14"/>
     </row>
     <row r="209">
-      <c r="D209" s="12"/>
+      <c r="D209" s="14"/>
     </row>
     <row r="210">
-      <c r="D210" s="12"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211">
-      <c r="D211" s="12"/>
+      <c r="D211" s="14"/>
     </row>
     <row r="212">
-      <c r="D212" s="12"/>
+      <c r="D212" s="14"/>
     </row>
     <row r="213">
-      <c r="D213" s="12"/>
+      <c r="D213" s="14"/>
     </row>
     <row r="214">
-      <c r="D214" s="12"/>
+      <c r="D214" s="14"/>
     </row>
     <row r="215">
-      <c r="D215" s="12"/>
+      <c r="D215" s="14"/>
     </row>
     <row r="216">
-      <c r="D216" s="12"/>
+      <c r="D216" s="14"/>
     </row>
     <row r="217">
-      <c r="D217" s="12"/>
+      <c r="D217" s="14"/>
     </row>
     <row r="218">
-      <c r="D218" s="12"/>
+      <c r="D218" s="14"/>
     </row>
     <row r="219">
-      <c r="D219" s="12"/>
+      <c r="D219" s="14"/>
     </row>
     <row r="220">
-      <c r="D220" s="13"/>
+      <c r="D220" s="15"/>
     </row>
     <row r="221">
-      <c r="D221" s="12"/>
+      <c r="D221" s="14"/>
     </row>
     <row r="222">
-      <c r="D222" s="12"/>
+      <c r="D222" s="14"/>
     </row>
     <row r="223">
-      <c r="D223" s="12"/>
+      <c r="D223" s="14"/>
     </row>
     <row r="224">
-      <c r="D224" s="12"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225">
-      <c r="D225" s="12"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226">
-      <c r="D226" s="12"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227">
-      <c r="D227" s="12"/>
+      <c r="D227" s="14"/>
     </row>
     <row r="228">
-      <c r="D228" s="12"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229">
-      <c r="D229" s="12"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230">
-      <c r="D230" s="12"/>
+      <c r="D230" s="14"/>
     </row>
     <row r="231">
-      <c r="D231" s="12"/>
+      <c r="D231" s="14"/>
     </row>
     <row r="232">
-      <c r="D232" s="12"/>
+      <c r="D232" s="14"/>
     </row>
     <row r="233">
-      <c r="D233" s="12"/>
+      <c r="D233" s="14"/>
     </row>
     <row r="234">
-      <c r="D234" s="12"/>
+      <c r="D234" s="14"/>
     </row>
     <row r="235">
-      <c r="D235" s="12"/>
+      <c r="D235" s="14"/>
     </row>
     <row r="236">
-      <c r="D236" s="12"/>
+      <c r="D236" s="14"/>
     </row>
     <row r="237">
-      <c r="D237" s="12"/>
+      <c r="D237" s="14"/>
     </row>
     <row r="238">
-      <c r="D238" s="12"/>
+      <c r="D238" s="14"/>
     </row>
     <row r="239">
-      <c r="D239" s="12"/>
+      <c r="D239" s="14"/>
     </row>
     <row r="240">
-      <c r="D240" s="12"/>
+      <c r="D240" s="14"/>
     </row>
     <row r="241">
-      <c r="D241" s="12"/>
+      <c r="D241" s="14"/>
     </row>
     <row r="242">
-      <c r="D242" s="12"/>
+      <c r="D242" s="14"/>
     </row>
     <row r="243">
-      <c r="D243" s="12"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244">
-      <c r="D244" s="12"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245">
-      <c r="D245" s="13"/>
+      <c r="D245" s="15"/>
     </row>
     <row r="246">
-      <c r="D246" s="12"/>
+      <c r="D246" s="14"/>
     </row>
     <row r="247">
-      <c r="D247" s="12"/>
+      <c r="D247" s="14"/>
     </row>
     <row r="248">
-      <c r="D248" s="12"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249">
-      <c r="D249" s="12"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250">
-      <c r="D250" s="12"/>
+      <c r="D250" s="14"/>
     </row>
     <row r="251">
-      <c r="D251" s="12"/>
+      <c r="D251" s="14"/>
     </row>
     <row r="252">
-      <c r="D252" s="12"/>
+      <c r="D252" s="14"/>
     </row>
     <row r="253">
-      <c r="D253" s="12"/>
+      <c r="D253" s="14"/>
     </row>
     <row r="254">
-      <c r="D254" s="12"/>
+      <c r="D254" s="14"/>
     </row>
     <row r="255">
-      <c r="D255" s="12"/>
+      <c r="D255" s="14"/>
     </row>
     <row r="256">
-      <c r="D256" s="12"/>
+      <c r="D256" s="14"/>
     </row>
     <row r="257">
-      <c r="D257" s="12"/>
+      <c r="D257" s="14"/>
     </row>
     <row r="258">
-      <c r="D258" s="12"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259">
-      <c r="D259" s="12"/>
+      <c r="D259" s="14"/>
     </row>
     <row r="260">
-      <c r="D260" s="12"/>
+      <c r="D260" s="14"/>
     </row>
     <row r="261">
-      <c r="D261" s="12"/>
+      <c r="D261" s="14"/>
     </row>
     <row r="262">
-      <c r="D262" s="12"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263">
-      <c r="D263" s="12"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264">
-      <c r="D264" s="12"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265">
-      <c r="D265" s="12"/>
+      <c r="D265" s="14"/>
     </row>
     <row r="266">
-      <c r="D266" s="12"/>
+      <c r="D266" s="14"/>
     </row>
     <row r="267">
-      <c r="D267" s="12"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268">
-      <c r="D268" s="12"/>
+      <c r="D268" s="14"/>
     </row>
     <row r="269">
-      <c r="D269" s="12"/>
+      <c r="D269" s="14"/>
     </row>
     <row r="270">
-      <c r="D270" s="13"/>
+      <c r="D270" s="15"/>
     </row>
     <row r="271">
-      <c r="D271" s="12"/>
+      <c r="D271" s="14"/>
     </row>
     <row r="272">
-      <c r="D272" s="12"/>
+      <c r="D272" s="14"/>
     </row>
     <row r="273">
-      <c r="D273" s="12"/>
+      <c r="D273" s="14"/>
     </row>
     <row r="274">
-      <c r="D274" s="12"/>
+      <c r="D274" s="14"/>
     </row>
     <row r="275">
-      <c r="D275" s="12"/>
+      <c r="D275" s="14"/>
     </row>
     <row r="276">
-      <c r="D276" s="12"/>
+      <c r="D276" s="14"/>
     </row>
     <row r="277">
-      <c r="D277" s="12"/>
+      <c r="D277" s="14"/>
     </row>
     <row r="278">
-      <c r="D278" s="12"/>
+      <c r="D278" s="14"/>
     </row>
     <row r="279">
-      <c r="D279" s="12"/>
+      <c r="D279" s="14"/>
     </row>
     <row r="280">
-      <c r="D280" s="12"/>
+      <c r="D280" s="14"/>
     </row>
     <row r="281">
-      <c r="D281" s="12"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282">
-      <c r="D282" s="12"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283">
-      <c r="D283" s="12"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284">
-      <c r="D284" s="12"/>
+      <c r="D284" s="14"/>
     </row>
     <row r="285">
-      <c r="D285" s="12"/>
+      <c r="D285" s="14"/>
     </row>
     <row r="286">
-      <c r="D286" s="12"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287">
-      <c r="D287" s="12"/>
+      <c r="D287" s="14"/>
     </row>
     <row r="288">
-      <c r="D288" s="12"/>
+      <c r="D288" s="14"/>
     </row>
     <row r="289">
-      <c r="D289" s="12"/>
+      <c r="D289" s="14"/>
     </row>
     <row r="290">
-      <c r="D290" s="12"/>
+      <c r="D290" s="14"/>
     </row>
     <row r="291">
-      <c r="D291" s="12"/>
+      <c r="D291" s="14"/>
     </row>
     <row r="292">
-      <c r="D292" s="12"/>
+      <c r="D292" s="14"/>
     </row>
     <row r="293">
-      <c r="D293" s="12"/>
+      <c r="D293" s="14"/>
     </row>
     <row r="294">
-      <c r="D294" s="12"/>
+      <c r="D294" s="14"/>
     </row>
     <row r="295">
-      <c r="D295" s="13"/>
+      <c r="D295" s="15"/>
     </row>
     <row r="296">
-      <c r="D296" s="12"/>
+      <c r="D296" s="14"/>
     </row>
     <row r="297">
-      <c r="D297" s="12"/>
+      <c r="D297" s="14"/>
     </row>
     <row r="298">
-      <c r="D298" s="12"/>
+      <c r="D298" s="14"/>
     </row>
     <row r="299">
-      <c r="D299" s="12"/>
+      <c r="D299" s="14"/>
     </row>
     <row r="300">
-      <c r="D300" s="12"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301">
-      <c r="D301" s="12"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302">
-      <c r="D302" s="12"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303">
-      <c r="D303" s="12"/>
+      <c r="D303" s="14"/>
     </row>
     <row r="304">
-      <c r="D304" s="12"/>
+      <c r="D304" s="14"/>
     </row>
     <row r="305">
-      <c r="D305" s="12"/>
+      <c r="D305" s="14"/>
     </row>
     <row r="306">
-      <c r="D306" s="12"/>
+      <c r="D306" s="14"/>
     </row>
     <row r="307">
-      <c r="D307" s="12"/>
+      <c r="D307" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2030,23 +2172,25 @@
     <hyperlink r:id="rId2" ref="D3"/>
     <hyperlink r:id="rId3" ref="D4"/>
     <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId5" ref="F5"/>
+    <hyperlink r:id="rId6" ref="D6"/>
+    <hyperlink r:id="rId7" ref="D7"/>
+    <hyperlink r:id="rId8" ref="D8"/>
+    <hyperlink r:id="rId9" ref="D9"/>
+    <hyperlink r:id="rId10" ref="D10"/>
+    <hyperlink r:id="rId11" ref="D11"/>
+    <hyperlink r:id="rId12" ref="D12"/>
+    <hyperlink r:id="rId13" ref="D13"/>
+    <hyperlink r:id="rId14" ref="D14"/>
+    <hyperlink r:id="rId15" ref="D15"/>
+    <hyperlink r:id="rId16" ref="F15"/>
+    <hyperlink r:id="rId17" ref="D16"/>
+    <hyperlink r:id="rId18" ref="D17"/>
+    <hyperlink r:id="rId19" ref="D18"/>
+    <hyperlink r:id="rId20" ref="D19"/>
+    <hyperlink r:id="rId21" ref="D20"/>
+    <hyperlink r:id="rId22" ref="D21"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>